--- a/rosters/2023/Dallas/Dallas.xlsx
+++ b/rosters/2023/Dallas/Dallas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>No.</t>
   </si>
@@ -46,13 +46,13 @@
     <t>bbref url</t>
   </si>
   <si>
-    <t>Spencer Dinwiddie</t>
+    <t>Reggie Bullock</t>
   </si>
   <si>
     <t>Tim Hardaway Jr.</t>
   </si>
   <si>
-    <t>Reggie Bullock</t>
+    <t>Dwight Powell</t>
   </si>
   <si>
     <t>Luka Dončić</t>
@@ -61,66 +61,66 @@
     <t>Christian Wood</t>
   </si>
   <si>
-    <t>Dwight Powell</t>
-  </si>
-  <si>
-    <t>Dorian Finney-Smith</t>
+    <t>Josh Green</t>
   </si>
   <si>
     <t>JaVale McGee</t>
   </si>
   <si>
-    <t>Josh Green</t>
-  </si>
-  <si>
     <t>Dāvis Bertāns</t>
   </si>
   <si>
     <t>Frank Ntilikina</t>
   </si>
   <si>
+    <t>Theo Pinson</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
     <t>Maxi Kleber</t>
   </si>
   <si>
-    <t>Theo Pinson</t>
-  </si>
-  <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
     <t>McKinley Wright IV (TW)</t>
   </si>
   <si>
     <t>A.J. Lawson (TW)</t>
   </si>
   <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Markieff Morris</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-6</t>
+    <t>6-10</t>
   </si>
   <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>7-0</t>
   </si>
   <si>
@@ -130,13 +130,19 @@
     <t>6-0</t>
   </si>
   <si>
-    <t>April 6, 1993</t>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>March 16, 1991</t>
   </si>
   <si>
     <t>March 16, 1992</t>
   </si>
   <si>
-    <t>March 16, 1991</t>
+    <t>July 20, 1991</t>
   </si>
   <si>
     <t>February 28, 1999</t>
@@ -145,48 +151,48 @@
     <t>September 27, 1995</t>
   </si>
   <si>
-    <t>July 20, 1991</t>
-  </si>
-  <si>
-    <t>May 4, 1993</t>
+    <t>November 16, 2000</t>
   </si>
   <si>
     <t>January 19, 1988</t>
   </si>
   <si>
-    <t>November 16, 2000</t>
-  </si>
-  <si>
     <t>November 12, 1992</t>
   </si>
   <si>
     <t>July 28, 1998</t>
   </si>
   <si>
+    <t>November 5, 1995</t>
+  </si>
+  <si>
+    <t>July 5, 2002</t>
+  </si>
+  <si>
     <t>January 29, 1992</t>
   </si>
   <si>
-    <t>November 5, 1995</t>
-  </si>
-  <si>
-    <t>July 5, 2002</t>
-  </si>
-  <si>
     <t>October 25, 1998</t>
   </si>
   <si>
     <t>July 15, 2000</t>
   </si>
   <si>
+    <t>March 23, 1992</t>
+  </si>
+  <si>
+    <t>September 2, 1989</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
+    <t>ca</t>
+  </si>
+  <si>
     <t>si</t>
   </si>
   <si>
-    <t>ca</t>
-  </si>
-  <si>
     <t>au</t>
   </si>
   <si>
@@ -199,24 +205,24 @@
     <t>de</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -226,40 +232,46 @@
     <t>1</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
     <t>Colorado</t>
   </si>
   <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
     <t>South Carolina</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/d/dinwisp01.html</t>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bullore01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/hardati02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bullore01.html</t>
+    <t>https://www.basketball-reference.com/players/p/poweldw01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/doncilu01.html</t>
@@ -268,37 +280,37 @@
     <t>https://www.basketball-reference.com/players/w/woodch01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/poweldw01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/f/finnedo01.html</t>
+    <t>https://www.basketball-reference.com/players/g/greenjo02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/mcgeeja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/greenjo02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/bertada01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/n/ntilila01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/pinsoth01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/hardyja02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/k/klebima01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/pinsoth01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/hardyja02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/wrighmc01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/l/lawsoaj01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/i/irvinky01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/morrima02.html</t>
   </si>
 </sst>
 </file>
@@ -712,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -724,22 +736,22 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -756,25 +768,25 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>205</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -782,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -791,25 +803,25 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -823,25 +835,25 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>230</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -855,28 +867,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>214</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -884,34 +896,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -919,34 +931,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -954,34 +966,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -989,34 +998,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F10">
         <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1024,31 +1030,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1056,31 +1065,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1094,25 +1103,25 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>240</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1120,34 +1129,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1155,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1164,22 +1173,25 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F15">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1187,69 +1199,66 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Dallas/Dallas.xlsx
+++ b/rosters/2023/Dallas/Dallas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
   <si>
     <t>No.</t>
   </si>
@@ -49,12 +49,12 @@
     <t>Reggie Bullock</t>
   </si>
   <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
     <t>Tim Hardaway Jr.</t>
   </si>
   <si>
-    <t>Dwight Powell</t>
-  </si>
-  <si>
     <t>Luka Dončić</t>
   </si>
   <si>
@@ -67,12 +67,12 @@
     <t>JaVale McGee</t>
   </si>
   <si>
+    <t>Frank Ntilikina</t>
+  </si>
+  <si>
     <t>Dāvis Bertāns</t>
   </si>
   <si>
-    <t>Frank Ntilikina</t>
-  </si>
-  <si>
     <t>Theo Pinson</t>
   </si>
   <si>
@@ -94,15 +94,18 @@
     <t>Markieff Morris</t>
   </si>
   <si>
+    <t>Justin Holiday</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -112,12 +115,12 @@
     <t>6-6</t>
   </si>
   <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
@@ -139,12 +142,12 @@
     <t>March 16, 1991</t>
   </si>
   <si>
+    <t>July 20, 1991</t>
+  </si>
+  <si>
     <t>March 16, 1992</t>
   </si>
   <si>
-    <t>July 20, 1991</t>
-  </si>
-  <si>
     <t>February 28, 1999</t>
   </si>
   <si>
@@ -157,12 +160,12 @@
     <t>January 19, 1988</t>
   </si>
   <si>
+    <t>July 28, 1998</t>
+  </si>
+  <si>
     <t>November 12, 1992</t>
   </si>
   <si>
-    <t>July 28, 1998</t>
-  </si>
-  <si>
     <t>November 5, 1995</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>September 2, 1989</t>
   </si>
   <si>
+    <t>April 5, 1989</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -196,12 +202,12 @@
     <t>au</t>
   </si>
   <si>
+    <t>be</t>
+  </si>
+  <si>
     <t>lv</t>
   </si>
   <si>
-    <t>be</t>
-  </si>
-  <si>
     <t>de</t>
   </si>
   <si>
@@ -238,12 +244,12 @@
     <t>UNC</t>
   </si>
   <si>
+    <t>Stanford</t>
+  </si>
+  <si>
     <t>Michigan</t>
   </si>
   <si>
-    <t>Stanford</t>
-  </si>
-  <si>
     <t>UNLV</t>
   </si>
   <si>
@@ -265,15 +271,18 @@
     <t>Kansas</t>
   </si>
   <si>
+    <t>Washington</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bullore01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/poweldw01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/hardati02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/poweldw01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/d/doncilu01.html</t>
   </si>
   <si>
@@ -286,12 +295,12 @@
     <t>https://www.basketball-reference.com/players/m/mcgeeja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/n/ntilila01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bertada01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/ntilila01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/p/pinsoth01.html</t>
   </si>
   <si>
@@ -311,6 +320,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/morrima02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/holidju01.html</t>
   </si>
 </sst>
 </file>
@@ -681,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,28 +742,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -759,34 +771,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -794,34 +806,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -835,25 +847,25 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>230</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -876,19 +888,19 @@
         <v>214</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -902,28 +914,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -940,25 +952,25 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>270</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -966,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -975,22 +987,22 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -998,31 +1010,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1036,28 +1048,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>212</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1071,25 +1083,25 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>198</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1112,16 +1124,16 @@
         <v>240</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1135,28 +1147,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1170,28 +1182,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1205,28 +1217,28 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1237,28 +1249,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>245</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1279,6 +1323,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Dallas/Dallas.xlsx
+++ b/rosters/2023/Dallas/Dallas.xlsx
@@ -64,12 +64,12 @@
     <t>Josh Green</t>
   </si>
   <si>
+    <t>Frank Ntilikina</t>
+  </si>
+  <si>
     <t>JaVale McGee</t>
   </si>
   <si>
-    <t>Frank Ntilikina</t>
-  </si>
-  <si>
     <t>Dāvis Bertāns</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>Kyrie Irving</t>
   </si>
   <si>
+    <t>Justin Holiday</t>
+  </si>
+  <si>
     <t>Markieff Morris</t>
   </si>
   <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>6-7</t>
   </si>
   <si>
+    <t>6-4</t>
+  </si>
+  <si>
     <t>7-0</t>
   </si>
   <si>
-    <t>6-4</t>
-  </si>
-  <si>
     <t>6-0</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>November 16, 2000</t>
   </si>
   <si>
+    <t>July 28, 1998</t>
+  </si>
+  <si>
     <t>January 19, 1988</t>
   </si>
   <si>
-    <t>July 28, 1998</t>
-  </si>
-  <si>
     <t>November 12, 1992</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>March 23, 1992</t>
   </si>
   <si>
+    <t>April 5, 1989</t>
+  </si>
+  <si>
     <t>September 2, 1989</t>
   </si>
   <si>
-    <t>April 5, 1989</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>2</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>Duke</t>
   </si>
   <si>
+    <t>Washington</t>
+  </si>
+  <si>
     <t>Kansas</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/bullore01.html</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>https://www.basketball-reference.com/players/g/greenjo02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/n/ntilila01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/mcgeeja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/ntilila01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/bertada01.html</t>
   </si>
   <si>
@@ -319,10 +319,10 @@
     <t>https://www.basketball-reference.com/players/i/irvinky01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/holidju01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/morrima02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/holidju01.html</t>
   </si>
 </sst>
 </file>
@@ -943,31 +943,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
         <v>70</v>
-      </c>
-      <c r="J8" t="s">
-        <v>80</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>92</v>
@@ -978,28 +975,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
         <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>93</v>
@@ -1086,7 +1086,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>198</v>
@@ -1130,7 +1130,7 @@
         <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>97</v>
@@ -1245,17 +1245,20 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
@@ -1264,7 +1267,7 @@
         <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
         <v>84</v>
@@ -1277,17 +1280,20 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
         <v>57</v>
@@ -1296,7 +1302,7 @@
         <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s">
         <v>85</v>

--- a/rosters/2023/Dallas/Dallas.xlsx
+++ b/rosters/2023/Dallas/Dallas.xlsx
@@ -67,12 +67,12 @@
     <t>Frank Ntilikina</t>
   </si>
   <si>
+    <t>Dāvis Bertāns</t>
+  </si>
+  <si>
     <t>JaVale McGee</t>
   </si>
   <si>
-    <t>Dāvis Bertāns</t>
-  </si>
-  <si>
     <t>Theo Pinson</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>July 28, 1998</t>
   </si>
   <si>
+    <t>November 12, 1992</t>
+  </si>
+  <si>
     <t>January 19, 1988</t>
   </si>
   <si>
-    <t>November 12, 1992</t>
-  </si>
-  <si>
     <t>November 5, 1995</t>
   </si>
   <si>
@@ -295,10 +295,10 @@
     <t>https://www.basketball-reference.com/players/n/ntilila01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/bertada01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/mcgeeja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bertada01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/pinsoth01.html</t>
@@ -975,31 +975,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>93</v>
@@ -1010,28 +1007,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>94</v>

--- a/rosters/2023/Dallas/Dallas.xlsx
+++ b/rosters/2023/Dallas/Dallas.xlsx
@@ -55,12 +55,12 @@
     <t>Tim Hardaway Jr.</t>
   </si>
   <si>
+    <t>Christian Wood</t>
+  </si>
+  <si>
     <t>Luka Dončić</t>
   </si>
   <si>
-    <t>Christian Wood</t>
-  </si>
-  <si>
     <t>Josh Green</t>
   </si>
   <si>
@@ -70,27 +70,27 @@
     <t>Dāvis Bertāns</t>
   </si>
   <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
     <t>JaVale McGee</t>
   </si>
   <si>
     <t>Theo Pinson</t>
   </si>
   <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
     <t>Maxi Kleber</t>
   </si>
   <si>
     <t>McKinley Wright IV (TW)</t>
   </si>
   <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
     <t>A.J. Lawson (TW)</t>
   </si>
   <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
     <t>Justin Holiday</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>March 16, 1992</t>
   </si>
   <si>
+    <t>September 27, 1995</t>
+  </si>
+  <si>
     <t>February 28, 1999</t>
   </si>
   <si>
-    <t>September 27, 1995</t>
-  </si>
-  <si>
     <t>November 16, 2000</t>
   </si>
   <si>
@@ -163,27 +163,27 @@
     <t>November 12, 1992</t>
   </si>
   <si>
+    <t>July 5, 2002</t>
+  </si>
+  <si>
     <t>January 19, 1988</t>
   </si>
   <si>
     <t>November 5, 1995</t>
   </si>
   <si>
-    <t>July 5, 2002</t>
-  </si>
-  <si>
     <t>January 29, 1992</t>
   </si>
   <si>
     <t>October 25, 1998</t>
   </si>
   <si>
+    <t>March 23, 1992</t>
+  </si>
+  <si>
     <t>July 15, 2000</t>
   </si>
   <si>
-    <t>March 23, 1992</t>
-  </si>
-  <si>
     <t>April 5, 1989</t>
   </si>
   <si>
@@ -217,24 +217,24 @@
     <t>8</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Colorado</t>
   </si>
   <si>
+    <t>Duke</t>
+  </si>
+  <si>
     <t>South Carolina</t>
   </si>
   <si>
-    <t>Duke</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>https://www.basketball-reference.com/players/h/hardati02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/woodch01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/doncilu01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/woodch01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/greenjo02.html</t>
   </si>
   <si>
@@ -298,25 +298,25 @@
     <t>https://www.basketball-reference.com/players/b/bertada01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hardyja02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/mcgeeja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/pinsoth01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hardyja02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/k/klebima01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/wrighmc01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/i/irvinky01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/l/lawsoaj01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/i/irvinky01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/holidju01.html</t>
@@ -841,28 +841,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
         <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>89</v>
@@ -873,31 +876,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
         <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>90</v>
@@ -996,7 +996,7 @@
         <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>93</v>
@@ -1007,19 +1007,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
@@ -1029,9 +1029,6 @@
       </c>
       <c r="I10" t="s">
         <v>71</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>94</v>
@@ -1042,19 +1039,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -1063,10 +1060,10 @@
         <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>95</v>
@@ -1077,7 +1074,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1086,10 +1083,10 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
@@ -1098,7 +1095,10 @@
         <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>96</v>
@@ -1176,28 +1176,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s">
         <v>82</v>
@@ -1211,28 +1211,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F16">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s">
         <v>83</v>

--- a/rosters/2023/Dallas/Dallas.xlsx
+++ b/rosters/2023/Dallas/Dallas.xlsx
@@ -64,15 +64,15 @@
     <t>Josh Green</t>
   </si>
   <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
     <t>Frank Ntilikina</t>
   </si>
   <si>
     <t>Dāvis Bertāns</t>
   </si>
   <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
     <t>JaVale McGee</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>Kyrie Irving</t>
   </si>
   <si>
+    <t>Justin Holiday</t>
+  </si>
+  <si>
     <t>A.J. Lawson (TW)</t>
   </si>
   <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
     <t>Markieff Morris</t>
   </si>
   <si>
@@ -157,15 +157,15 @@
     <t>November 16, 2000</t>
   </si>
   <si>
+    <t>July 5, 2002</t>
+  </si>
+  <si>
     <t>July 28, 1998</t>
   </si>
   <si>
     <t>November 12, 1992</t>
   </si>
   <si>
-    <t>July 5, 2002</t>
-  </si>
-  <si>
     <t>January 19, 1988</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>March 23, 1992</t>
   </si>
   <si>
+    <t>April 5, 1989</t>
+  </si>
+  <si>
     <t>July 15, 2000</t>
   </si>
   <si>
-    <t>April 5, 1989</t>
-  </si>
-  <si>
     <t>September 2, 1989</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>2</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -265,12 +265,12 @@
     <t>Duke</t>
   </si>
   <si>
+    <t>Washington</t>
+  </si>
+  <si>
     <t>South Carolina</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>Kansas</t>
   </si>
   <si>
@@ -292,15 +292,15 @@
     <t>https://www.basketball-reference.com/players/g/greenjo02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hardyja02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/n/ntilila01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/bertada01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hardyja02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/mcgeeja01.html</t>
   </si>
   <si>
@@ -316,10 +316,10 @@
     <t>https://www.basketball-reference.com/players/i/irvinky01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/holidju01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/l/lawsoaj01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/holidju01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/morrima02.html</t>
@@ -943,25 +943,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
         <v>70</v>
@@ -975,28 +975,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>93</v>
@@ -1007,28 +1007,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>94</v>
@@ -1130,7 +1130,7 @@
         <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>97</v>
@@ -1211,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1223,16 +1223,16 @@
         <v>32</v>
       </c>
       <c r="F16">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
         <v>83</v>
@@ -1246,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1258,16 +1258,16 @@
         <v>32</v>
       </c>
       <c r="F17">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
         <v>84</v>
